--- a/MVP/SHOPPING_LISTS/SUPE/SUPE.xlsx
+++ b/MVP/SHOPPING_LISTS/SUPE/SUPE.xlsx
@@ -721,7 +721,7 @@
     </row>
     <row r="2" spans="1:9">
       <c r="B2" s="1">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>9</v>
@@ -747,7 +747,7 @@
     </row>
     <row r="3" spans="1:9">
       <c r="B3" s="1">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>10</v>
@@ -773,7 +773,7 @@
     </row>
     <row r="4" spans="1:9">
       <c r="B4" s="1">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>11</v>
@@ -799,7 +799,7 @@
     </row>
     <row r="5" spans="1:9">
       <c r="B5" s="1">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>12</v>
@@ -825,7 +825,7 @@
     </row>
     <row r="6" spans="1:9">
       <c r="B6" s="1">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>13</v>
@@ -851,7 +851,7 @@
     </row>
     <row r="7" spans="1:9">
       <c r="B7" s="1">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>14</v>
@@ -877,7 +877,7 @@
     </row>
     <row r="8" spans="1:9">
       <c r="B8" s="1">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>15</v>
@@ -903,7 +903,7 @@
     </row>
     <row r="9" spans="1:9">
       <c r="B9" s="1">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>16</v>
@@ -929,7 +929,7 @@
     </row>
     <row r="10" spans="1:9">
       <c r="B10" s="1">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>17</v>
@@ -955,7 +955,7 @@
     </row>
     <row r="11" spans="1:9">
       <c r="B11" s="1">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>18</v>
@@ -981,7 +981,7 @@
     </row>
     <row r="12" spans="1:9">
       <c r="B12" s="1">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>19</v>
@@ -1007,7 +1007,7 @@
     </row>
     <row r="13" spans="1:9">
       <c r="B13" s="1">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>20</v>
@@ -1033,7 +1033,7 @@
     </row>
     <row r="14" spans="1:9">
       <c r="B14" s="1">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>21</v>
@@ -1059,7 +1059,7 @@
     </row>
     <row r="15" spans="1:9">
       <c r="B15" s="1">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>22</v>
@@ -1085,7 +1085,7 @@
     </row>
     <row r="16" spans="1:9">
       <c r="B16" s="1">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>23</v>
@@ -1111,7 +1111,7 @@
     </row>
     <row r="17" spans="2:9">
       <c r="B17" s="1">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>24</v>
@@ -1137,7 +1137,7 @@
     </row>
     <row r="18" spans="2:9">
       <c r="B18" s="1">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>25</v>
@@ -1163,7 +1163,7 @@
     </row>
     <row r="19" spans="2:9">
       <c r="B19" s="1">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>26</v>
@@ -1189,7 +1189,7 @@
     </row>
     <row r="20" spans="2:9">
       <c r="B20" s="1">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>27</v>
@@ -1215,7 +1215,7 @@
     </row>
     <row r="21" spans="2:9">
       <c r="B21" s="1">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>28</v>
@@ -1241,7 +1241,7 @@
     </row>
     <row r="22" spans="2:9">
       <c r="B22" s="1">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>29</v>
@@ -1267,7 +1267,7 @@
     </row>
     <row r="23" spans="2:9">
       <c r="B23" s="1">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>30</v>
@@ -1293,7 +1293,7 @@
     </row>
     <row r="24" spans="2:9">
       <c r="B24" s="1">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>31</v>
@@ -1319,7 +1319,7 @@
     </row>
     <row r="25" spans="2:9">
       <c r="B25" s="1">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>32</v>
@@ -1345,7 +1345,7 @@
     </row>
     <row r="26" spans="2:9">
       <c r="B26" s="1">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>33</v>
@@ -1371,7 +1371,7 @@
     </row>
     <row r="27" spans="2:9">
       <c r="B27" s="1">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>34</v>
@@ -1397,7 +1397,7 @@
     </row>
     <row r="28" spans="2:9">
       <c r="B28" s="1">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>35</v>
@@ -1423,7 +1423,7 @@
     </row>
     <row r="29" spans="2:9">
       <c r="B29" s="1">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>36</v>
@@ -1449,7 +1449,7 @@
     </row>
     <row r="30" spans="2:9">
       <c r="B30" s="1">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>37</v>
@@ -1475,7 +1475,7 @@
     </row>
     <row r="31" spans="2:9">
       <c r="B31" s="1">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>38</v>
@@ -1501,7 +1501,7 @@
     </row>
     <row r="32" spans="2:9">
       <c r="B32" s="1">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>39</v>
@@ -1527,7 +1527,7 @@
     </row>
     <row r="33" spans="2:9">
       <c r="B33" s="1">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>40</v>
@@ -1553,7 +1553,7 @@
     </row>
     <row r="34" spans="2:9">
       <c r="B34" s="1">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>41</v>
@@ -1579,7 +1579,7 @@
     </row>
     <row r="35" spans="2:9">
       <c r="B35" s="1">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>42</v>
@@ -1605,7 +1605,7 @@
     </row>
     <row r="36" spans="2:9">
       <c r="B36" s="1">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>43</v>
@@ -1631,7 +1631,7 @@
     </row>
     <row r="37" spans="2:9">
       <c r="B37" s="1">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>44</v>
@@ -1657,7 +1657,7 @@
     </row>
     <row r="38" spans="2:9">
       <c r="B38" s="1">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>45</v>
@@ -1683,7 +1683,7 @@
     </row>
     <row r="39" spans="2:9">
       <c r="B39" s="1">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>46</v>

--- a/MVP/SHOPPING_LISTS/SUPE/SUPE.xlsx
+++ b/MVP/SHOPPING_LISTS/SUPE/SUPE.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="90">
   <si>
     <t>DOCUMENT PREVIEW</t>
   </si>
@@ -91,15 +91,9 @@
     <t>13-018266</t>
   </si>
   <si>
-    <t>13-018267</t>
-  </si>
-  <si>
     <t>13-018268</t>
   </si>
   <si>
-    <t>13-018270</t>
-  </si>
-  <si>
     <t>13-018271</t>
   </si>
   <si>
@@ -205,13 +199,7 @@
     <t>MVP-PRT: HEATPIPE CLAMP B</t>
   </si>
   <si>
-    <t>MVP-PRT: LONG AIR</t>
-  </si>
-  <si>
     <t>MVP-PRT: HEATSINK</t>
-  </si>
-  <si>
-    <t>MVP-PRT: SHORT AIR</t>
   </si>
   <si>
     <t>MVP-PRT: FLOWCELL COVER</t>
@@ -670,7 +658,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Z39"/>
+  <dimension ref="A1:Z37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -721,25 +709,25 @@
     </row>
     <row r="2" spans="1:9">
       <c r="B2" s="1">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>9</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="I2" s="1">
         <v>1</v>
@@ -747,25 +735,25 @@
     </row>
     <row r="3" spans="1:9">
       <c r="B3" s="1">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>10</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="I3" s="1">
         <v>1</v>
@@ -773,25 +761,25 @@
     </row>
     <row r="4" spans="1:9">
       <c r="B4" s="1">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="I4" s="1">
         <v>1</v>
@@ -799,25 +787,25 @@
     </row>
     <row r="5" spans="1:9">
       <c r="B5" s="1">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="I5" s="1">
         <v>1</v>
@@ -825,25 +813,25 @@
     </row>
     <row r="6" spans="1:9">
       <c r="B6" s="1">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>13</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="I6" s="1">
         <v>1</v>
@@ -851,25 +839,25 @@
     </row>
     <row r="7" spans="1:9">
       <c r="B7" s="1">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="I7" s="1">
         <v>1</v>
@@ -877,25 +865,25 @@
     </row>
     <row r="8" spans="1:9">
       <c r="B8" s="1">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="I8" s="1">
         <v>1</v>
@@ -903,25 +891,25 @@
     </row>
     <row r="9" spans="1:9">
       <c r="B9" s="1">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>16</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="I9" s="1">
         <v>1</v>
@@ -929,25 +917,25 @@
     </row>
     <row r="10" spans="1:9">
       <c r="B10" s="1">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>17</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="I10" s="1">
         <v>1</v>
@@ -955,25 +943,25 @@
     </row>
     <row r="11" spans="1:9">
       <c r="B11" s="1">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="I11" s="1">
         <v>2</v>
@@ -981,25 +969,25 @@
     </row>
     <row r="12" spans="1:9">
       <c r="B12" s="1">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>19</v>
       </c>
       <c r="G12" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="H12" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>91</v>
       </c>
       <c r="I12" s="1">
         <v>1</v>
@@ -1007,25 +995,25 @@
     </row>
     <row r="13" spans="1:9">
       <c r="B13" s="1">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>20</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="I13" s="1">
         <v>2</v>
@@ -1033,25 +1021,25 @@
     </row>
     <row r="14" spans="1:9">
       <c r="B14" s="1">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>21</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="I14" s="1">
         <v>1</v>
@@ -1059,25 +1047,25 @@
     </row>
     <row r="15" spans="1:9">
       <c r="B15" s="1">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>22</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="I15" s="1">
         <v>1</v>
@@ -1085,25 +1073,25 @@
     </row>
     <row r="16" spans="1:9">
       <c r="B16" s="1">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="I16" s="1">
         <v>1</v>
@@ -1111,25 +1099,25 @@
     </row>
     <row r="17" spans="2:9">
       <c r="B17" s="1">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>24</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I17" s="1">
         <v>1</v>
@@ -1137,25 +1125,25 @@
     </row>
     <row r="18" spans="2:9">
       <c r="B18" s="1">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>25</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>25</v>
       </c>
       <c r="G18" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="H18" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>93</v>
       </c>
       <c r="I18" s="1">
         <v>1</v>
@@ -1163,25 +1151,25 @@
     </row>
     <row r="19" spans="2:9">
       <c r="B19" s="1">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>26</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="I19" s="1">
         <v>1</v>
@@ -1189,25 +1177,25 @@
     </row>
     <row r="20" spans="2:9">
       <c r="B20" s="1">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>27</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="I20" s="1">
         <v>1</v>
@@ -1215,25 +1203,25 @@
     </row>
     <row r="21" spans="2:9">
       <c r="B21" s="1">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>28</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="I21" s="1">
         <v>1</v>
@@ -1241,25 +1229,25 @@
     </row>
     <row r="22" spans="2:9">
       <c r="B22" s="1">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>29</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="I22" s="1">
         <v>1</v>
@@ -1267,25 +1255,25 @@
     </row>
     <row r="23" spans="2:9">
       <c r="B23" s="1">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>30</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="I23" s="1">
         <v>1</v>
@@ -1293,25 +1281,25 @@
     </row>
     <row r="24" spans="2:9">
       <c r="B24" s="1">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>31</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>31</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="I24" s="1">
         <v>1</v>
@@ -1319,25 +1307,25 @@
     </row>
     <row r="25" spans="2:9">
       <c r="B25" s="1">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>32</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>32</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="I25" s="1">
         <v>1</v>
@@ -1345,25 +1333,25 @@
     </row>
     <row r="26" spans="2:9">
       <c r="B26" s="1">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>33</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="I26" s="1">
         <v>1</v>
@@ -1371,25 +1359,25 @@
     </row>
     <row r="27" spans="2:9">
       <c r="B27" s="1">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>34</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="I27" s="1">
         <v>1</v>
@@ -1397,25 +1385,25 @@
     </row>
     <row r="28" spans="2:9">
       <c r="B28" s="1">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>35</v>
       </c>
       <c r="G28" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="H28" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>88</v>
       </c>
       <c r="I28" s="1">
         <v>1</v>
@@ -1423,25 +1411,25 @@
     </row>
     <row r="29" spans="2:9">
       <c r="B29" s="1">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>36</v>
       </c>
       <c r="G29" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="H29" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>88</v>
       </c>
       <c r="I29" s="1">
         <v>1</v>
@@ -1449,25 +1437,25 @@
     </row>
     <row r="30" spans="2:9">
       <c r="B30" s="1">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>37</v>
       </c>
       <c r="G30" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="H30" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>91</v>
       </c>
       <c r="I30" s="1">
         <v>1</v>
@@ -1475,51 +1463,51 @@
     </row>
     <row r="31" spans="2:9">
       <c r="B31" s="1">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>38</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="I31" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="32" spans="2:9">
       <c r="B32" s="1">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>39</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="I32" s="1">
         <v>1</v>
@@ -1527,51 +1515,51 @@
     </row>
     <row r="33" spans="2:9">
       <c r="B33" s="1">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>40</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="I33" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="2:9">
       <c r="B34" s="1">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>41</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="I34" s="1">
         <v>1</v>
@@ -1579,25 +1567,25 @@
     </row>
     <row r="35" spans="2:9">
       <c r="B35" s="1">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>42</v>
+        <v>82</v>
       </c>
       <c r="G35" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="H35" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="H35" s="1" t="s">
-        <v>88</v>
       </c>
       <c r="I35" s="1">
         <v>1</v>
@@ -1605,105 +1593,53 @@
     </row>
     <row r="36" spans="2:9">
       <c r="B36" s="1">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="I36" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="37" spans="2:9">
       <c r="B37" s="1">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>86</v>
+        <v>44</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="I37" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="2:9">
-      <c r="B38" s="1">
-        <v>124</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="H38" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="I38" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="39" spans="2:9">
-      <c r="B39" s="1">
-        <v>125</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="H39" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="I39" s="1">
         <v>1</v>
       </c>
     </row>
